--- a/mouse-data/test-data - 副本.xlsx
+++ b/mouse-data/test-data - 副本.xlsx
@@ -4,30 +4,43 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9324" activeTab="2"/>
+    <workbookView windowWidth="22188" windowHeight="9324" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="体重变化" sheetId="1" r:id="rId1"/>
-    <sheet name="粮食变化" sheetId="2" r:id="rId2"/>
-    <sheet name="杀鼠表" sheetId="3" r:id="rId3"/>
+    <sheet name="体重记录" sheetId="1" r:id="rId1"/>
+    <sheet name="杀鼠表" sheetId="2" r:id="rId2"/>
+    <sheet name="新增粮食" sheetId="3" r:id="rId3"/>
+    <sheet name="剩余粮食" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
-    <t>mouse_108(/g)</t>
+    <t>date</t>
   </si>
   <si>
-    <t>mouse_109(/g)</t>
+    <t>mouse_108</t>
   </si>
   <si>
-    <t>mouse_110(/g)</t>
+    <t>mouse_109</t>
   </si>
   <si>
-    <t>cage_28</t>
+    <t>mouse_110</t>
+  </si>
+  <si>
+    <t>mouseID</t>
+  </si>
+  <si>
+    <t>mouse108</t>
+  </si>
+  <si>
+    <t>mouse109</t>
+  </si>
+  <si>
+    <t>mouse110</t>
   </si>
   <si>
     <t>血液</t>
@@ -39,29 +52,46 @@
     <t>肠系膜</t>
   </si>
   <si>
-    <t>mouse108</t>
+    <t>cageID</t>
   </si>
   <si>
-    <t>mouse109</t>
+    <t>cage_28</t>
   </si>
   <si>
-    <t>mouse110</t>
+    <t>cage_29</t>
+  </si>
+  <si>
+    <t>cage_30</t>
+  </si>
+  <si>
+    <t>cage_31</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -405,12 +435,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -516,157 +561,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -982,28 +1030,27 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="11.8888888888889"/>
-    <col min="2" max="4" width="12.8888888888889"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>45200</v>
       </c>
       <c r="B2">
@@ -1017,7 +1064,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>45201</v>
       </c>
       <c r="B3">
@@ -1031,7 +1078,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>45202</v>
       </c>
       <c r="B4">
@@ -1045,7 +1092,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>45203</v>
       </c>
       <c r="B5">
@@ -1059,7 +1106,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>45204</v>
       </c>
       <c r="B6">
@@ -1073,7 +1120,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>45205</v>
       </c>
       <c r="B7">
@@ -1087,7 +1134,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>45206</v>
       </c>
       <c r="B8">
@@ -1101,7 +1148,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>45207</v>
       </c>
       <c r="B9">
@@ -1115,7 +1162,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>45208</v>
       </c>
       <c r="B10">
@@ -1129,7 +1176,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>45209</v>
       </c>
       <c r="B11">
@@ -1143,7 +1190,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>45210</v>
       </c>
       <c r="B12">
@@ -1157,7 +1204,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>45211</v>
       </c>
       <c r="B13">
@@ -1171,7 +1218,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>45212</v>
       </c>
       <c r="B14">
@@ -1185,7 +1232,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>45213</v>
       </c>
       <c r="B15">
@@ -1199,8 +1246,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1208,137 +1254,84 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="11.8888888888889"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>45200</v>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
-        <v>45201</v>
+        <v>55</v>
+      </c>
+      <c r="C2">
+        <v>105</v>
+      </c>
+      <c r="D2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
-        <v>45202</v>
+        <v>58</v>
+      </c>
+      <c r="C3">
+        <v>108</v>
+      </c>
+      <c r="D3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
-        <v>45203</v>
-      </c>
-      <c r="B5">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <v>45204</v>
-      </c>
-      <c r="B6">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1">
-        <v>45205</v>
-      </c>
-      <c r="B7">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1">
-        <v>45206</v>
-      </c>
-      <c r="B8">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1">
-        <v>45207</v>
-      </c>
-      <c r="B9">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1">
-        <v>45208</v>
-      </c>
-      <c r="B10">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1">
-        <v>45209</v>
-      </c>
-      <c r="B11">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
-        <v>45210</v>
-      </c>
-      <c r="B12">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1">
-        <v>45211</v>
-      </c>
-      <c r="B13">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1">
-        <v>45212</v>
-      </c>
-      <c r="B14">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1">
-        <v>45213</v>
-      </c>
-      <c r="B15">
-        <v>153</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C4">
+        <v>110</v>
+      </c>
+      <c r="D4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="7:7">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="7:15">
+      <c r="G6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="7:7">
+      <c r="G7" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1346,70 +1339,1325 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>7</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>45200</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C2">
+        <v>102</v>
+      </c>
+      <c r="D2">
+        <v>103</v>
+      </c>
+      <c r="E2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>45201</v>
+      </c>
+      <c r="B3">
         <v>105</v>
       </c>
+      <c r="C3">
+        <v>106</v>
+      </c>
+      <c r="D3">
+        <v>107</v>
+      </c>
+      <c r="E3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>45202</v>
+      </c>
+      <c r="B4">
+        <v>109</v>
+      </c>
+      <c r="C4">
+        <v>110</v>
+      </c>
+      <c r="D4">
+        <v>111</v>
+      </c>
+      <c r="E4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>45203</v>
+      </c>
+      <c r="B5">
+        <v>113</v>
+      </c>
+      <c r="C5">
+        <v>114</v>
+      </c>
+      <c r="D5">
+        <v>115</v>
+      </c>
+      <c r="E5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>45204</v>
+      </c>
+      <c r="B6">
+        <v>117</v>
+      </c>
+      <c r="C6">
+        <v>118</v>
+      </c>
+      <c r="D6">
+        <v>119</v>
+      </c>
+      <c r="E6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>45205</v>
+      </c>
+      <c r="B7">
+        <v>121</v>
+      </c>
+      <c r="C7">
+        <v>122</v>
+      </c>
+      <c r="D7">
+        <v>123</v>
+      </c>
+      <c r="E7">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>45206</v>
+      </c>
+      <c r="B8">
+        <v>125</v>
+      </c>
+      <c r="C8">
+        <v>126</v>
+      </c>
+      <c r="D8">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>45209</v>
+      </c>
+      <c r="B9">
+        <v>137</v>
+      </c>
+      <c r="C9">
+        <v>138</v>
+      </c>
+      <c r="D9">
+        <v>139</v>
+      </c>
+      <c r="E9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>45210</v>
+      </c>
+      <c r="B10">
+        <v>141</v>
+      </c>
+      <c r="C10">
+        <v>142</v>
+      </c>
+      <c r="D10">
+        <v>143</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>45211</v>
+      </c>
+      <c r="B11">
+        <v>145</v>
+      </c>
+      <c r="C11">
+        <v>146</v>
+      </c>
+      <c r="D11">
+        <v>147</v>
+      </c>
+      <c r="E11">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>45212</v>
+      </c>
+      <c r="B12">
+        <v>149</v>
+      </c>
+      <c r="C12">
+        <v>150</v>
+      </c>
+      <c r="D12">
+        <v>151</v>
+      </c>
+      <c r="E12">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>45213</v>
+      </c>
+      <c r="B13">
+        <v>153</v>
+      </c>
+      <c r="C13">
+        <v>154</v>
+      </c>
+      <c r="D13">
+        <v>155</v>
+      </c>
+      <c r="E13">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>45214</v>
+      </c>
+      <c r="B14">
+        <v>157</v>
+      </c>
+      <c r="C14">
+        <v>158</v>
+      </c>
+      <c r="D14">
+        <v>159</v>
+      </c>
+      <c r="E14">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>45215</v>
+      </c>
+      <c r="B15">
+        <v>161</v>
+      </c>
+      <c r="C15">
+        <v>162</v>
+      </c>
+      <c r="D15">
+        <v>163</v>
+      </c>
+      <c r="E15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>45216</v>
+      </c>
+      <c r="B16">
+        <v>165</v>
+      </c>
+      <c r="C16">
+        <v>166</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>45217</v>
+      </c>
+      <c r="B17">
+        <v>169</v>
+      </c>
+      <c r="C17">
+        <v>170</v>
+      </c>
+      <c r="D17">
+        <v>171</v>
+      </c>
+      <c r="E17">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>45218</v>
+      </c>
+      <c r="B18">
+        <v>173</v>
+      </c>
+      <c r="C18">
+        <v>174</v>
+      </c>
+      <c r="D18">
+        <v>175</v>
+      </c>
+      <c r="E18">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>45219</v>
+      </c>
+      <c r="B19">
+        <v>177</v>
+      </c>
+      <c r="C19">
+        <v>178</v>
+      </c>
+      <c r="D19">
+        <v>179</v>
+      </c>
+      <c r="E19">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>45220</v>
+      </c>
+      <c r="B20">
+        <v>181</v>
+      </c>
+      <c r="C20">
+        <v>182</v>
+      </c>
+      <c r="D20">
+        <v>183</v>
+      </c>
+      <c r="E20">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>45221</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>186</v>
+      </c>
+      <c r="D21">
+        <v>187</v>
+      </c>
+      <c r="E21">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>45222</v>
+      </c>
+      <c r="B22">
+        <v>189</v>
+      </c>
+      <c r="C22">
+        <v>190</v>
+      </c>
+      <c r="D22">
+        <v>191</v>
+      </c>
+      <c r="E22">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>45223</v>
+      </c>
+      <c r="B23">
+        <v>193</v>
+      </c>
+      <c r="C23">
+        <v>194</v>
+      </c>
+      <c r="D23">
+        <v>195</v>
+      </c>
+      <c r="E23">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>45224</v>
+      </c>
+      <c r="B24">
+        <v>197</v>
+      </c>
+      <c r="C24">
+        <v>198</v>
+      </c>
+      <c r="D24">
+        <v>199</v>
+      </c>
+      <c r="E24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>45225</v>
+      </c>
+      <c r="B25">
+        <v>201</v>
+      </c>
+      <c r="C25">
+        <v>202</v>
+      </c>
+      <c r="D25">
+        <v>203</v>
+      </c>
+      <c r="E25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>45226</v>
+      </c>
+      <c r="B26">
+        <v>205</v>
+      </c>
+      <c r="C26">
+        <v>206</v>
+      </c>
+      <c r="D26">
+        <v>207</v>
+      </c>
+      <c r="E26">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>45227</v>
+      </c>
+      <c r="B27">
+        <v>209</v>
+      </c>
+      <c r="C27">
+        <v>210</v>
+      </c>
+      <c r="D27">
+        <v>211</v>
+      </c>
+      <c r="E27">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>45228</v>
+      </c>
+      <c r="B28">
+        <v>213</v>
+      </c>
+      <c r="C28">
+        <v>214</v>
+      </c>
+      <c r="D28">
+        <v>215</v>
+      </c>
+      <c r="E28">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>45229</v>
+      </c>
+      <c r="B29">
+        <v>217</v>
+      </c>
+      <c r="C29">
+        <v>218</v>
+      </c>
+      <c r="D29">
+        <v>219</v>
+      </c>
+      <c r="E29">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B30">
+        <v>221</v>
+      </c>
+      <c r="C30">
+        <v>222</v>
+      </c>
+      <c r="D30">
+        <v>223</v>
+      </c>
+      <c r="E30">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
+        <v>45231</v>
+      </c>
+      <c r="B31">
+        <v>225</v>
+      </c>
+      <c r="C31">
+        <v>226</v>
+      </c>
+      <c r="D31">
+        <v>227</v>
+      </c>
+      <c r="E31">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>45232</v>
+      </c>
+      <c r="B32">
+        <v>229</v>
+      </c>
+      <c r="C32">
+        <v>230</v>
+      </c>
+      <c r="D32">
+        <v>231</v>
+      </c>
+      <c r="E32">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>45233</v>
+      </c>
+      <c r="B33">
+        <v>233</v>
+      </c>
+      <c r="C33">
+        <v>234</v>
+      </c>
+      <c r="D33">
+        <v>235</v>
+      </c>
+      <c r="E33">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>45234</v>
+      </c>
+      <c r="B34">
+        <v>237</v>
+      </c>
+      <c r="C34">
+        <v>238</v>
+      </c>
+      <c r="D34">
+        <v>239</v>
+      </c>
+      <c r="E34">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>45235</v>
+      </c>
+      <c r="B35">
+        <v>241</v>
+      </c>
+      <c r="C35">
+        <v>242</v>
+      </c>
+      <c r="D35">
+        <v>243</v>
+      </c>
+      <c r="E35">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>45236</v>
+      </c>
+      <c r="B36">
+        <v>245</v>
+      </c>
+      <c r="C36">
+        <v>246</v>
+      </c>
+      <c r="D36">
+        <v>247</v>
+      </c>
+      <c r="E36">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>45237</v>
+      </c>
+      <c r="B37">
+        <v>249</v>
+      </c>
+      <c r="C37">
+        <v>250</v>
+      </c>
+      <c r="D37">
+        <v>251</v>
+      </c>
+      <c r="E37">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>45238</v>
+      </c>
+      <c r="B38">
+        <v>253</v>
+      </c>
+      <c r="C38">
+        <v>254</v>
+      </c>
+      <c r="D38">
+        <v>255</v>
+      </c>
+      <c r="E38">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B2">
+        <v>78</v>
+      </c>
+      <c r="C2">
+        <v>79</v>
+      </c>
       <c r="D2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>8</v>
+        <v>80</v>
+      </c>
+      <c r="E2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>45201</v>
       </c>
       <c r="B3">
         <v>58</v>
       </c>
       <c r="C3">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="D3">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>9</v>
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>45202</v>
       </c>
       <c r="B4">
+        <v>56</v>
+      </c>
+      <c r="C4">
         <v>57</v>
       </c>
-      <c r="C4">
-        <v>110</v>
-      </c>
       <c r="D4">
-        <v>95</v>
+        <v>58</v>
+      </c>
+      <c r="E4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>45203</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>52</v>
+      </c>
+      <c r="E5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>45204</v>
+      </c>
+      <c r="B6">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>76</v>
+      </c>
+      <c r="D6">
+        <v>77</v>
+      </c>
+      <c r="E6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>45205</v>
+      </c>
+      <c r="B7">
+        <v>59.2</v>
+      </c>
+      <c r="C7">
+        <v>60.2</v>
+      </c>
+      <c r="D7">
+        <v>61.2</v>
+      </c>
+      <c r="E7">
+        <v>62.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>45206</v>
+      </c>
+      <c r="B8">
+        <v>57.8</v>
+      </c>
+      <c r="C8">
+        <v>58.8</v>
+      </c>
+      <c r="D8">
+        <v>59.8</v>
+      </c>
+      <c r="E8">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>45209</v>
+      </c>
+      <c r="B9">
+        <v>56.4</v>
+      </c>
+      <c r="C9">
+        <v>57.4</v>
+      </c>
+      <c r="D9">
+        <v>58.4</v>
+      </c>
+      <c r="E9">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>45210</v>
+      </c>
+      <c r="B10">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>56</v>
+      </c>
+      <c r="D10">
+        <v>57</v>
+      </c>
+      <c r="E10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>45211</v>
+      </c>
+      <c r="B11">
+        <v>53.6</v>
+      </c>
+      <c r="C11">
+        <v>54.6</v>
+      </c>
+      <c r="D11">
+        <v>55.6</v>
+      </c>
+      <c r="E11">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>45212</v>
+      </c>
+      <c r="B12">
+        <v>52.2</v>
+      </c>
+      <c r="C12">
+        <v>53.2</v>
+      </c>
+      <c r="D12">
+        <v>54.2</v>
+      </c>
+      <c r="E12">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>45213</v>
+      </c>
+      <c r="B13">
+        <v>50.8</v>
+      </c>
+      <c r="C13">
+        <v>51.8</v>
+      </c>
+      <c r="D13">
+        <v>52.8</v>
+      </c>
+      <c r="E13">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>45214</v>
+      </c>
+      <c r="B14">
+        <v>49.4</v>
+      </c>
+      <c r="C14">
+        <v>50.4</v>
+      </c>
+      <c r="D14">
+        <v>51.4</v>
+      </c>
+      <c r="E14">
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>45215</v>
+      </c>
+      <c r="B15">
+        <v>48</v>
+      </c>
+      <c r="C15">
+        <v>49</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>45216</v>
+      </c>
+      <c r="B16">
+        <v>46.6</v>
+      </c>
+      <c r="C16">
+        <v>47.6</v>
+      </c>
+      <c r="D16">
+        <v>48.6</v>
+      </c>
+      <c r="E16">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>45217</v>
+      </c>
+      <c r="B17">
+        <v>45.2</v>
+      </c>
+      <c r="C17">
+        <v>46.2</v>
+      </c>
+      <c r="D17">
+        <v>47.2</v>
+      </c>
+      <c r="E17">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>45218</v>
+      </c>
+      <c r="B18">
+        <v>43.8</v>
+      </c>
+      <c r="C18">
+        <v>44.8</v>
+      </c>
+      <c r="D18">
+        <v>45.8</v>
+      </c>
+      <c r="E18">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>45219</v>
+      </c>
+      <c r="B19">
+        <v>42.4</v>
+      </c>
+      <c r="C19">
+        <v>43.4</v>
+      </c>
+      <c r="D19">
+        <v>44.4</v>
+      </c>
+      <c r="E19">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>45220</v>
+      </c>
+      <c r="B20">
+        <v>41</v>
+      </c>
+      <c r="C20">
+        <v>42</v>
+      </c>
+      <c r="D20">
+        <v>43</v>
+      </c>
+      <c r="E20">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>45221</v>
+      </c>
+      <c r="B21">
+        <v>39.6</v>
+      </c>
+      <c r="C21">
+        <v>40.6</v>
+      </c>
+      <c r="D21">
+        <v>41.6</v>
+      </c>
+      <c r="E21">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>45222</v>
+      </c>
+      <c r="B22">
+        <v>38.2</v>
+      </c>
+      <c r="C22">
+        <v>39.2</v>
+      </c>
+      <c r="D22">
+        <v>40.2</v>
+      </c>
+      <c r="E22">
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>45223</v>
+      </c>
+      <c r="B23">
+        <v>36.8</v>
+      </c>
+      <c r="C23">
+        <v>37.8</v>
+      </c>
+      <c r="D23">
+        <v>38.8</v>
+      </c>
+      <c r="E23">
+        <v>39.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>45224</v>
+      </c>
+      <c r="B24">
+        <v>35.4</v>
+      </c>
+      <c r="C24">
+        <v>36.4</v>
+      </c>
+      <c r="D24">
+        <v>37.4</v>
+      </c>
+      <c r="E24">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>45225</v>
+      </c>
+      <c r="B25">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>35</v>
+      </c>
+      <c r="D25">
+        <v>36</v>
+      </c>
+      <c r="E25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>45226</v>
+      </c>
+      <c r="B26">
+        <v>32.6</v>
+      </c>
+      <c r="C26">
+        <v>33.6</v>
+      </c>
+      <c r="D26">
+        <v>34.6</v>
+      </c>
+      <c r="E26">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>45227</v>
+      </c>
+      <c r="B27">
+        <v>31.2</v>
+      </c>
+      <c r="C27">
+        <v>32.2</v>
+      </c>
+      <c r="D27">
+        <v>33.2</v>
+      </c>
+      <c r="E27">
+        <v>34.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>45228</v>
+      </c>
+      <c r="B28">
+        <v>29.8</v>
+      </c>
+      <c r="C28">
+        <v>30.8</v>
+      </c>
+      <c r="D28">
+        <v>31.8</v>
+      </c>
+      <c r="E28">
+        <v>32.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>45229</v>
+      </c>
+      <c r="B29">
+        <v>28.4</v>
+      </c>
+      <c r="C29">
+        <v>29.4</v>
+      </c>
+      <c r="D29">
+        <v>30.4</v>
+      </c>
+      <c r="E29">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B30">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>28</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
+        <v>45231</v>
+      </c>
+      <c r="B31">
+        <v>25.6</v>
+      </c>
+      <c r="C31">
+        <v>26.6</v>
+      </c>
+      <c r="D31">
+        <v>27.6</v>
+      </c>
+      <c r="E31">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>45232</v>
+      </c>
+      <c r="B32">
+        <v>24.2</v>
+      </c>
+      <c r="C32">
+        <v>25.2</v>
+      </c>
+      <c r="D32">
+        <v>26.2</v>
+      </c>
+      <c r="E32">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>45233</v>
+      </c>
+      <c r="B33">
+        <v>22.8</v>
+      </c>
+      <c r="C33">
+        <v>23.8</v>
+      </c>
+      <c r="D33">
+        <v>24.8</v>
+      </c>
+      <c r="E33">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>45234</v>
+      </c>
+      <c r="B34">
+        <v>21.4</v>
+      </c>
+      <c r="C34">
+        <v>22.4</v>
+      </c>
+      <c r="D34">
+        <v>23.4</v>
+      </c>
+      <c r="E34">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>45235</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>22</v>
+      </c>
+      <c r="E35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>45236</v>
+      </c>
+      <c r="B36">
+        <v>18.6</v>
+      </c>
+      <c r="C36">
+        <v>19.6</v>
+      </c>
+      <c r="D36">
+        <v>20.6</v>
+      </c>
+      <c r="E36">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>45237</v>
+      </c>
+      <c r="B37">
+        <v>17.2</v>
+      </c>
+      <c r="C37">
+        <v>18.2</v>
+      </c>
+      <c r="D37">
+        <v>19.2</v>
+      </c>
+      <c r="E37">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>45238</v>
+      </c>
+      <c r="B38">
+        <v>15.8</v>
+      </c>
+      <c r="C38">
+        <v>16.8</v>
+      </c>
+      <c r="D38">
+        <v>17.8</v>
+      </c>
+      <c r="E38">
+        <v>18.8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>